--- a/ig/sd-pays-de-recrutement/CodeSystem-eclaire-study-status-code-system.xlsx
+++ b/ig/sd-pays-de-recrutement/CodeSystem-eclaire-study-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:07:53+00:00</t>
+    <t>2023-07-27T08:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
